--- a/resources/cache-headers-stale-jan2015.xlsx
+++ b/resources/cache-headers-stale-jan2015.xlsx
@@ -11,7 +11,7 @@
     <sheet name="stale-if-error" sheetId="3" r:id="rId2"/>
     <sheet name="Percentage" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,8 +20,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Barbara Bermes</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Barbara Bermes:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+SELECT pages.url, pages.rank FROM [httparchive:runs.latest_requests] 
+  as req JOIN (SELECT url , pageid, rank FROM [httparchive:runs.latest_pages]) as pages ON pages.pageid = req.pageid WHERE req.resp_cache_control contains "stale-if-error" 
+group by pages.url, pages.rank;</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="686">
   <si>
     <t>pages_url</t>
   </si>
@@ -2061,6 +2097,24 @@
   </si>
   <si>
     <t>http://www.autosite.com/</t>
+  </si>
+  <si>
+    <t>Big Query for stale-while-validate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT pages.url, pages.rank FROM [httparchive:runs.latest_requests] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  as req JOIN (SELECT url , pageid, rank FROM [httparchive:runs.latest_pages]) as pages ON pages.pageid = req.pageid WHERE req.resp_cache_control contains "stale-if-error" </t>
+  </si>
+  <si>
+    <t>group by pages.url, pages.rank;</t>
+  </si>
+  <si>
+    <t>Big Query for stale-if-error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  as req JOIN (SELECT url , pageid, rank FROM [httparchive:runs.latest_pages]) as pages ON pages.pageid = req.pageid WHERE req.resp_cache_control contains "stale-while-validate" </t>
   </si>
 </sst>
 </file>
@@ -2070,7 +2124,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2088,6 +2142,35 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2110,16 +2193,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="8">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -8815,11 +8910,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8864,8 +8959,46 @@
         <v>570</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>680</v>
+      </c>
+      <c r="B14" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>684</v>
+      </c>
+      <c r="B18" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
+        <v>683</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
